--- a/trunk/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DDS_Sprint4.xlsx
+++ b/trunk/6. Test/Linh tinh/sprint 4/AS_TE_TestCase-DDS_Sprint4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="6" r:id="rId1"/>
@@ -243,18 +243,6 @@
     <t>Admin123@gmail.com</t>
   </si>
   <si>
-    <t>Số lượng Testcase: 94</t>
-  </si>
-  <si>
-    <t>Số lượng testcase passed: 72 (chiếm 76%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase failed: 20 (chiếm 22%)</t>
-  </si>
-  <si>
-    <t>Số lượng testcase block: 2 (chiếm 2%)</t>
-  </si>
-  <si>
     <t>Số lượng testcase passed đạt mức 76% phù hợp với chỉ tiêu đặt ra ở mức NORMAL(&lt;80%).</t>
   </si>
   <si>
@@ -347,6 +335,18 @@
  - Ngày gởi
  - Nội dung
 </t>
+  </si>
+  <si>
+    <t>Số lượng Testcase: 5</t>
+  </si>
+  <si>
+    <t>Số lượng testcase failed: 0 (chiếm 0%)</t>
+  </si>
+  <si>
+    <t>Số lượng testcase block: 0 (chiếm 0%)</t>
+  </si>
+  <si>
+    <t>Số lượng testcase passed: 5 (chiếm 100%)</t>
   </si>
 </sst>
 </file>
@@ -825,6 +825,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,39 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1066,6 +1066,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1286,7 +1287,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1610,6 +1613,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2741,18 +2745,18 @@
   <sheetData>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2772,7 +2776,7 @@
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="49"/>
@@ -2782,18 +2786,18 @@
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="34" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2816,24 +2820,24 @@
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2844,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="46" t="s">
@@ -2859,7 +2863,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="46" t="s">
@@ -2874,7 +2878,7 @@
         <v>1.2</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="46" t="s">
@@ -2889,7 +2893,7 @@
         <v>1.3</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="46" t="s">
@@ -2904,7 +2908,7 @@
         <v>1.4</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="46" t="s">
@@ -2919,7 +2923,7 @@
         <v>1.5</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="46" t="s">
@@ -2993,7 +2997,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -3005,7 +3009,7 @@
     </row>
     <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -3025,7 +3029,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -3045,7 +3049,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -3065,7 +3069,7 @@
     </row>
     <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -3095,7 +3099,7 @@
   </sheetPr>
   <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -3113,13 +3117,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="20">
         <f>COUNTIF(I11:I30,"&gt;a0")</f>
         <v>5</v>
@@ -3127,11 +3131,11 @@
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="20">
         <f>SUM(D5:D6)</f>
         <v>5</v>
@@ -3139,55 +3143,55 @@
       <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="20">
         <f>D2-D3</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="20">
         <f>COUNTIF(H11:H29,"Passed")</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="20">
         <f>COUNTIF(H27:H29,"Failed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="63" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="20">
         <f>COUNTIF(H27:H29,"Block")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="58"/>
+      <c r="B8" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="19">
         <f>1-(D4/D2)</f>
         <v>1</v>
@@ -3237,7 +3241,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
@@ -3251,90 +3255,90 @@
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="62">
         <v>166</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="51" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="2:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>10</v>
@@ -3358,7 +3362,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>27</v>
@@ -3389,7 +3393,7 @@
     </row>
     <row r="22" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>37</v>
@@ -3413,7 +3417,7 @@
         <v>35</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>34</v>
@@ -3444,7 +3448,7 @@
     </row>
     <row r="25" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>4</v>
@@ -3468,10 +3472,10 @@
         <v>4</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -3499,7 +3503,7 @@
     </row>
     <row r="28" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>1</v>
@@ -3663,8 +3667,8 @@
   </sheetPr>
   <dimension ref="L3:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,22 +3678,22 @@
   <sheetData>
     <row r="3" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L3" s="25" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L4" s="25" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L5" s="25" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L6" s="25" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3697,7 +3701,7 @@
     </row>
     <row r="8" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L8" s="31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3708,7 +3712,7 @@
     </row>
     <row r="11" spans="12:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="L11" s="33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="12:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3716,7 +3720,7 @@
     </row>
     <row r="13" spans="12:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="L13" s="33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
